--- a/Reports/BCM_First_2-14_03_25-test1.xlsx
+++ b/Reports/BCM_First_2-14_03_25-test1.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Отчёт" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Отчёт!$D$1:$D$135</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="185">
   <si>
     <t>Дата проверки</t>
   </si>
@@ -60,9 +63,6 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -162,9 +162,6 @@
     <t>HBRO_XP1_14</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>PWM</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>HSO_XP2_12</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>HSO_XP3_1</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>HBRO_XP3_14</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>HSO_XP4_1</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
     <t>HSO_XP4_10</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>HSO_XP5_1</t>
   </si>
   <si>
@@ -321,9 +309,6 @@
     <t>HSO_XP5_12</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>DIGN_XP6_1</t>
   </si>
   <si>
@@ -342,9 +327,6 @@
     <t>HSO_XP6_6</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>HSO_XP7_1</t>
   </si>
   <si>
@@ -357,12 +339,6 @@
     <t>HSO_XP7_4</t>
   </si>
   <si>
-    <t>HBRO_XP7_5</t>
-  </si>
-  <si>
-    <t>HBRO_XP7_6</t>
-  </si>
-  <si>
     <t>HSO_XP7_7</t>
   </si>
   <si>
@@ -375,9 +351,6 @@
     <t>HSO_XP7_10</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>HBRO_XP8_1</t>
   </si>
   <si>
@@ -390,9 +363,6 @@
     <t>HBRO_XP8_6</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>HSO_XP9_1</t>
   </si>
   <si>
@@ -465,9 +435,6 @@
     <t>ADC_XP9_20</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>ADC_XP10_10</t>
   </si>
   <si>
@@ -501,9 +468,6 @@
     <t>DIGN_XP10_20</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>HSO_XP11_1</t>
   </si>
   <si>
@@ -562,6 +526,57 @@
   </si>
   <si>
     <t>По асцилу ничего не меняется перключая Arc5. Наверно проблема в жгуте, поменял стенд та же песня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прграмма попадает в строку 659 в defult свитча </t>
+  </si>
+  <si>
+    <t>Точно так же как и B2. Программа управляет как ШИМ, мы управляем как цифровой. В спецификации управляется как сифровой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По асцилу ничего не меняется перключая Sw7. </t>
+  </si>
+  <si>
+    <t>По асцилу ничего не меняется прокручивая ARv6</t>
+  </si>
+  <si>
+    <t>A  (XP1)</t>
+  </si>
+  <si>
+    <t>B  (XP2)</t>
+  </si>
+  <si>
+    <t>C  (XP3)</t>
+  </si>
+  <si>
+    <t>D  (XP4)</t>
+  </si>
+  <si>
+    <t>E  (XP5)</t>
+  </si>
+  <si>
+    <t>F  (XP6)</t>
+  </si>
+  <si>
+    <t>G  (XP7)</t>
+  </si>
+  <si>
+    <t>H  (XP8)</t>
+  </si>
+  <si>
+    <t>I  (XP9)</t>
+  </si>
+  <si>
+    <t>J  (XP10)</t>
+  </si>
+  <si>
+    <t>K  (XP11)</t>
+  </si>
+  <si>
+    <t>B8 меняем с B2</t>
+  </si>
+  <si>
+    <t>dig</t>
   </si>
 </sst>
 </file>
@@ -597,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -620,12 +635,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,21 +695,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -957,71 +1001,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="13" customWidth="1"/>
-    <col min="8" max="8" width="100.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="123.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11">
         <v>45730</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="12">
         <v>0.69311369212963003</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1039,2808 +1083,2921 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="9" t="s">
-        <v>18</v>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="9" t="s">
-        <v>180</v>
+      <c r="H11" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9" t="s">
-        <v>18</v>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9" t="s">
-        <v>18</v>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9" t="s">
-        <v>18</v>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9" t="s">
-        <v>18</v>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9" t="s">
-        <v>18</v>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="9" t="s">
-        <v>179</v>
+      <c r="H23" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="9" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="9" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
+      <c r="H29" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="9" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="9" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="9" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="9" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="9" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="9" t="s">
-        <v>18</v>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="9" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="9" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="9" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="9" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="9" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="9" t="s">
-        <v>18</v>
+      <c r="H41" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="9" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="9" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="9" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="9" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="9" t="s">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="9" t="s">
-        <v>18</v>
+        <v>75</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="9" t="s">
-        <v>18</v>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="9" t="s">
-        <v>18</v>
+      <c r="H51" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="9" t="s">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="9" t="s">
-        <v>18</v>
+      <c r="H54" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="9" t="s">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="9" t="s">
-        <v>18</v>
+        <v>82</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="9" t="s">
-        <v>18</v>
+      <c r="H57" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="9" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="9" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="9" t="s">
-        <v>18</v>
+        <v>86</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="9" t="s">
-        <v>18</v>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="9" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="9" t="s">
-        <v>18</v>
+      <c r="H63" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="H78" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="9" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="9" t="s">
-        <v>18</v>
+        <v>106</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="9" t="s">
-        <v>18</v>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="9" t="s">
-        <v>18</v>
+        <v>108</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="9" t="s">
-        <v>18</v>
+        <v>109</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="9" t="s">
-        <v>18</v>
+        <v>110</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="9" t="s">
-        <v>18</v>
+        <v>111</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="9" t="s">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="9" t="s">
-        <v>18</v>
+        <v>113</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="9" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="9" t="s">
-        <v>18</v>
+        <v>115</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="9" t="s">
-        <v>18</v>
+        <v>116</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="9" t="s">
-        <v>18</v>
+        <v>117</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="9" t="s">
-        <v>18</v>
+        <v>118</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="9" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="9" t="s">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="9" t="s">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="9" t="s">
-        <v>18</v>
+      <c r="H98" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="9" t="s">
-        <v>18</v>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="9" t="s">
-        <v>18</v>
+        <v>124</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="9" t="s">
-        <v>18</v>
+        <v>126</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="9" t="s">
-        <v>18</v>
+      <c r="H102" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="9" t="s">
-        <v>18</v>
+        <v>130</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="9" t="s">
-        <v>18</v>
+        <v>134</v>
+      </c>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="9" t="s">
-        <v>18</v>
+        <v>136</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="9" t="s">
-        <v>18</v>
+      <c r="H107" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="9" t="s">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="9" t="s">
-        <v>18</v>
+        <v>139</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="9" t="s">
-        <v>18</v>
+        <v>140</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="9" t="s">
-        <v>18</v>
+        <v>141</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="9" t="s">
-        <v>18</v>
+        <v>142</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="9" t="s">
-        <v>18</v>
+        <v>143</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="9" t="s">
-        <v>18</v>
+        <v>144</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="9" t="s">
-        <v>18</v>
+        <v>145</v>
+      </c>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="9" t="s">
-        <v>18</v>
+        <v>146</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="9" t="s">
-        <v>18</v>
+        <v>147</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="9" t="s">
-        <v>18</v>
+      <c r="H118" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="9" t="s">
-        <v>18</v>
+        <v>149</v>
+      </c>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="9" t="s">
-        <v>18</v>
+        <v>150</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="9" t="s">
-        <v>18</v>
+        <v>151</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="9" t="s">
-        <v>18</v>
+        <v>152</v>
+      </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="9" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="9" t="s">
-        <v>18</v>
+        <v>154</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="9" t="s">
-        <v>18</v>
+        <v>155</v>
+      </c>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="9" t="s">
-        <v>18</v>
+        <v>156</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="9" t="s">
-        <v>18</v>
+      <c r="H127" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="9" t="s">
-        <v>18</v>
+        <v>158</v>
+      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="9" t="s">
-        <v>18</v>
+        <v>159</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="9" t="s">
-        <v>18</v>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="9" t="s">
-        <v>18</v>
+        <v>161</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="9" t="s">
-        <v>18</v>
+        <v>162</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="9" t="s">
-        <v>18</v>
+        <v>163</v>
+      </c>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="9" t="s">
-        <v>18</v>
+        <v>164</v>
+      </c>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="9" t="s">
-        <v>18</v>
+        <v>165</v>
+      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D135"/>
   <mergeCells count="137">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F124:G124"/>
     <mergeCell ref="F134:G134"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="F125:G125"/>
@@ -3852,132 +4009,6 @@
     <mergeCell ref="F131:G131"/>
     <mergeCell ref="F132:G132"/>
     <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
